--- a/normalizalas/Nyílt tanítási órák.xlsx
+++ b/normalizalas/Nyílt tanítási órák.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Horvath Hunor\git\Szisarp\normalizalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B973F-0083-4214-B2F0-631D87BA73A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD96F16-4EA7-4016-B5A4-66183F27E240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="175">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -508,6 +508,66 @@
   <si>
     <t>Dr. Horváth Andrea</t>
   </si>
+  <si>
+    <t>Déri Ildikó</t>
+  </si>
+  <si>
+    <t>8.H</t>
+  </si>
+  <si>
+    <t>angol nyelv</t>
+  </si>
+  <si>
+    <t>Páva Zoltánné</t>
+  </si>
+  <si>
+    <t>német</t>
+  </si>
+  <si>
+    <t>Füstösné Cs. Katalin</t>
+  </si>
+  <si>
+    <t>vállalkozási ismeretek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.C </t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>12.D</t>
+  </si>
+  <si>
+    <t>programozási alapok</t>
+  </si>
+  <si>
+    <t>Programozási alapok</t>
+  </si>
+  <si>
+    <t>Mészáros Róbert</t>
+  </si>
+  <si>
+    <t>Hálózatok</t>
+  </si>
+  <si>
+    <t>Papné kigyósi Ildikó</t>
+  </si>
+  <si>
+    <t>9.H / 1.</t>
+  </si>
+  <si>
+    <t>Galambfalvi Rozália</t>
+  </si>
+  <si>
+    <t>francia nyelv</t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1068,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,6 +1361,18 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,6 +1383,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1469,12 +1642,12 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="54"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -2279,12 +2452,12 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="54"/>
       <c r="G27" s="50"/>
       <c r="H27" s="2"/>
@@ -3340,12 +3513,12 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="72"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
       <c r="F53" s="67"/>
       <c r="G53" s="50"/>
       <c r="H53" s="2"/>
@@ -33024,11 +33197,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC1000"/>
+  <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33562,7 +33735,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>89</v>
       </c>
@@ -33576,7 +33749,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" t="s">
@@ -33597,24 +33770,22 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>112</v>
-      </c>
+      <c r="E17" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" t="s">
         <v>0</v>
       </c>
@@ -33637,18 +33808,20 @@
         <v>89</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="58"/>
+        <v>99</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>112</v>
+      </c>
       <c r="G18" t="s">
         <v>0</v>
       </c>
@@ -33671,18 +33844,20 @@
         <v>89</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="58"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>112</v>
+      </c>
       <c r="G19" t="s">
         <v>0</v>
       </c>
@@ -33705,20 +33880,18 @@
         <v>89</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>99</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F20" s="58"/>
       <c r="G20" t="s">
         <v>0</v>
       </c>
@@ -33736,23 +33909,23 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:29">
+      <c r="A21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="59"/>
+      <c r="B21" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="58"/>
       <c r="G21" t="s">
         <v>0</v>
       </c>
@@ -33771,22 +33944,24 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="61"/>
+      <c r="A22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="G22" t="s">
         <v>0</v>
       </c>
@@ -33804,23 +33979,23 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="58"/>
+    <row r="23" spans="1:29" ht="15.75" thickBot="1">
+      <c r="A23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="59"/>
       <c r="G23" t="s">
         <v>0</v>
       </c>
@@ -33839,22 +34014,22 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="58"/>
+      <c r="B24" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="61"/>
       <c r="G24" t="s">
         <v>0</v>
       </c>
@@ -33872,21 +34047,21 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+    <row r="25" spans="1:29">
       <c r="A25" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" t="s">
@@ -33911,20 +34086,18 @@
         <v>118</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>135</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F26" s="58"/>
       <c r="G26" t="s">
         <v>0</v>
       </c>
@@ -33942,23 +34115,23 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:29">
+      <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="59"/>
+      <c r="B27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="58"/>
       <c r="G27" t="s">
         <v>0</v>
       </c>
@@ -33977,24 +34150,24 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="50" t="s">
-        <v>1</v>
+      <c r="A28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" t="s">
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -34012,33 +34185,26 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -34053,35 +34219,26 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -34096,35 +34253,26 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="63"/>
+      <c r="B31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="71"/>
       <c r="G31" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -34140,36 +34288,25 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>112</v>
-      </c>
+      <c r="B32" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -34184,23 +34321,23 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="64"/>
+      <c r="C33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="63"/>
       <c r="G33" s="50" t="s">
         <v>1</v>
       </c>
@@ -34228,22 +34365,22 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="65"/>
+      <c r="A34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="63"/>
       <c r="G34" s="50" t="s">
         <v>1</v>
       </c>
@@ -34272,23 +34409,21 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>112</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F35" s="63"/>
       <c r="G35" s="50" t="s">
         <v>1</v>
       </c>
@@ -34317,21 +34452,23 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="63"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="G36" s="50" t="s">
         <v>1</v>
       </c>
@@ -34358,23 +34495,23 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A37" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="63"/>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="64"/>
       <c r="G37" s="50" t="s">
         <v>1</v>
       </c>
@@ -34402,22 +34539,22 @@
       <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="63"/>
+      <c r="B38" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="65"/>
       <c r="G38" s="50" t="s">
         <v>1</v>
       </c>
@@ -34444,23 +34581,25 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="64"/>
+      <c r="B39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="G39" s="50" t="s">
         <v>1</v>
       </c>
@@ -34488,22 +34627,22 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="65"/>
+      <c r="A40" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="63"/>
       <c r="G40" s="50" t="s">
         <v>1</v>
       </c>
@@ -34532,19 +34671,19 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F41" s="63"/>
       <c r="G41" s="50" t="s">
@@ -34575,19 +34714,19 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F42" s="63"/>
       <c r="G42" s="50" t="s">
@@ -34616,23 +34755,23 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="63"/>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="64"/>
       <c r="G43" s="50" t="s">
         <v>1</v>
       </c>
@@ -34660,22 +34799,22 @@
       <c r="AC43" s="2"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="63"/>
+      <c r="B44" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="65"/>
       <c r="G44" s="50" t="s">
         <v>1</v>
       </c>
@@ -34702,23 +34841,23 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="66"/>
+      <c r="B45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="63"/>
       <c r="G45" s="50" t="s">
         <v>1</v>
       </c>
@@ -34746,22 +34885,22 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="65"/>
+      <c r="A46" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="63"/>
       <c r="G46" s="50" t="s">
         <v>1</v>
       </c>
@@ -34790,23 +34929,21 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
       <c r="A47" s="20" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>112</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="63"/>
       <c r="G47" s="50" t="s">
         <v>1</v>
       </c>
@@ -34835,19 +34972,19 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
       <c r="A48" s="20" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="50" t="s">
@@ -34878,19 +35015,19 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="F49" s="63"/>
       <c r="G49" s="50" t="s">
@@ -34919,25 +35056,23 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A50" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>112</v>
-      </c>
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="66"/>
       <c r="G50" s="50" t="s">
         <v>1</v>
       </c>
@@ -34965,22 +35100,22 @@
       <c r="AC50" s="2"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="64"/>
+      <c r="B51" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="65"/>
       <c r="G51" s="50" t="s">
         <v>1</v>
       </c>
@@ -35009,25 +35144,23 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="69" t="s">
-        <v>149</v>
-      </c>
+      <c r="F52" s="65"/>
       <c r="G52" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -35054,25 +35187,25 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="69" t="s">
+      <c r="D53" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="63" t="s">
         <v>112</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -35099,23 +35232,23 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="69"/>
+      <c r="D54" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="63"/>
       <c r="G54" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -35142,23 +35275,23 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="69"/>
+      <c r="D55" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="63"/>
       <c r="G55" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -35185,25 +35318,25 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1">
       <c r="A56" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>150</v>
+      <c r="D56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -35230,23 +35363,23 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="69"/>
+      <c r="D57" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="64"/>
       <c r="G57" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -35273,21 +35406,23 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="G58" s="50" t="s">
         <v>2</v>
       </c>
@@ -35316,22 +35451,22 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="20" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G59" s="50" t="s">
         <v>2</v>
@@ -35361,23 +35496,21 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="20" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>112</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F60" s="69"/>
       <c r="G60" s="50" t="s">
         <v>2</v>
       </c>
@@ -35406,19 +35539,19 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="20" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="F61" s="69"/>
       <c r="G61" s="50" t="s">
@@ -35449,23 +35582,21 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="20" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="69" t="s">
-        <v>99</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F62" s="69"/>
       <c r="G62" s="50" t="s">
         <v>2</v>
       </c>
@@ -35492,23 +35623,25 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>74</v>
+    <row r="63" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G63" s="50" t="s">
         <v>2</v>
       </c>
@@ -35536,22 +35669,24 @@
       <c r="AC63" s="2"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A64" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="69"/>
+      <c r="A64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="G64" s="50" t="s">
         <v>2</v>
       </c>
@@ -35578,21 +35713,21 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A65" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>22</v>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A65" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="F65" s="69"/>
       <c r="G65" s="50" t="s">
@@ -35622,20 +35757,20 @@
       <c r="AC65" s="2"/>
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A66" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>106</v>
+      <c r="A66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="F66" s="69"/>
       <c r="G66" s="50" t="s">
@@ -35666,21 +35801,23 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="20" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="69"/>
+        <v>153</v>
+      </c>
+      <c r="E67" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="G67" s="50" t="s">
         <v>2</v>
       </c>
@@ -35709,22 +35846,22 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="20" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>159</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="G68" s="50" t="s">
         <v>2</v>
@@ -35752,24 +35889,24 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>99</v>
+    <row r="69" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A69" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="G69" s="50" t="s">
         <v>2</v>
@@ -35798,20 +35935,20 @@
       <c r="AC69" s="2"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>125</v>
+      <c r="A70" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="F70" s="69"/>
       <c r="G70" s="50" t="s">
@@ -35842,21 +35979,23 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="20" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="69"/>
+        <v>86</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="G71" s="50" t="s">
         <v>2</v>
       </c>
@@ -35883,21 +36022,21 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A72" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>131</v>
+    <row r="72" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A72" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="50" t="s">
@@ -35926,21 +36065,21 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A73" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>21</v>
+    <row r="73" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="F73" s="69"/>
       <c r="G73" s="50" t="s">
@@ -35970,24 +36109,22 @@
       <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A74" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" s="27" t="s">
+      <c r="A74" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="69" t="s">
-        <v>99</v>
-      </c>
+      <c r="F74" s="69"/>
       <c r="G74" s="50" t="s">
         <v>2</v>
       </c>
@@ -36014,21 +36151,21 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>133</v>
+    <row r="75" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A75" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="F75" s="69"/>
       <c r="G75" s="50" t="s">
@@ -36057,25 +36194,23 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>135</v>
-      </c>
+    <row r="76" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A76" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F76" s="69"/>
       <c r="G76" s="50" t="s">
         <v>2</v>
       </c>
@@ -36103,13 +36238,25 @@
       <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="A77" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="69"/>
+      <c r="G77" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -36134,13 +36281,27 @@
       <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
+      <c r="A78" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -36165,13 +36326,27 @@
       <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
+      <c r="A79" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -36196,13 +36371,27 @@
       <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
+      <c r="A80" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -36226,14 +36415,28 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
+    <row r="81" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A81" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -36257,14 +36460,28 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
+    <row r="82" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -36289,13 +36506,25 @@
       <c r="AC82" s="2"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="A83" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="69"/>
+      <c r="G83" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -36320,13 +36549,25 @@
       <c r="AC83" s="2"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="A84" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -36351,13 +36592,25 @@
       <c r="AC84" s="2"/>
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
+      <c r="A85" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="69"/>
+      <c r="G85" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -36382,13 +36635,25 @@
       <c r="AC85" s="2"/>
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="A86" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="69"/>
+      <c r="G86" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -36413,13 +36678,27 @@
       <c r="AC86" s="2"/>
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
+      <c r="A87" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -36443,14 +36722,26 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
+    <row r="88" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="69"/>
+      <c r="G88" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -36474,14 +36765,28 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
+    <row r="89" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G89" s="50" t="s">
+        <v>2</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -64654,6 +64959,12 @@
       <c r="AC997" s="2"/>
     </row>
     <row r="998" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A998" s="50"/>
+      <c r="B998" s="50"/>
+      <c r="C998" s="50"/>
+      <c r="D998" s="50"/>
+      <c r="E998" s="50"/>
+      <c r="F998" s="50"/>
       <c r="G998" s="50"/>
       <c r="H998" s="2"/>
       <c r="I998" s="2"/>
@@ -64679,6 +64990,12 @@
       <c r="AC998" s="2"/>
     </row>
     <row r="999" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A999" s="50"/>
+      <c r="B999" s="50"/>
+      <c r="C999" s="50"/>
+      <c r="D999" s="50"/>
+      <c r="E999" s="50"/>
+      <c r="F999" s="50"/>
       <c r="G999" s="50"/>
       <c r="H999" s="2"/>
       <c r="I999" s="2"/>
@@ -64704,6 +65021,12 @@
       <c r="AC999" s="2"/>
     </row>
     <row r="1000" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1000" s="50"/>
+      <c r="B1000" s="50"/>
+      <c r="C1000" s="50"/>
+      <c r="D1000" s="50"/>
+      <c r="E1000" s="50"/>
+      <c r="F1000" s="50"/>
       <c r="G1000" s="50"/>
       <c r="H1000" s="2"/>
       <c r="I1000" s="2"/>
@@ -64728,9 +65051,394 @@
       <c r="AB1000" s="2"/>
       <c r="AC1000" s="2"/>
     </row>
+    <row r="1001" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1001" s="50"/>
+      <c r="B1001" s="50"/>
+      <c r="C1001" s="50"/>
+      <c r="D1001" s="50"/>
+      <c r="E1001" s="50"/>
+      <c r="F1001" s="50"/>
+      <c r="G1001" s="50"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+      <c r="AB1001" s="2"/>
+      <c r="AC1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1002" s="50"/>
+      <c r="B1002" s="50"/>
+      <c r="C1002" s="50"/>
+      <c r="D1002" s="50"/>
+      <c r="E1002" s="50"/>
+      <c r="F1002" s="50"/>
+      <c r="G1002" s="50"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+      <c r="AB1002" s="2"/>
+      <c r="AC1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1003" s="50"/>
+      <c r="B1003" s="50"/>
+      <c r="C1003" s="50"/>
+      <c r="D1003" s="50"/>
+      <c r="E1003" s="50"/>
+      <c r="F1003" s="50"/>
+      <c r="G1003" s="50"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+      <c r="AB1003" s="2"/>
+      <c r="AC1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1004" s="50"/>
+      <c r="B1004" s="50"/>
+      <c r="C1004" s="50"/>
+      <c r="D1004" s="50"/>
+      <c r="E1004" s="50"/>
+      <c r="F1004" s="50"/>
+      <c r="G1004" s="50"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+      <c r="AB1004" s="2"/>
+      <c r="AC1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1005" s="50"/>
+      <c r="B1005" s="50"/>
+      <c r="C1005" s="50"/>
+      <c r="D1005" s="50"/>
+      <c r="E1005" s="50"/>
+      <c r="F1005" s="50"/>
+      <c r="G1005" s="50"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+      <c r="AB1005" s="2"/>
+      <c r="AC1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1006" s="50"/>
+      <c r="B1006" s="50"/>
+      <c r="C1006" s="50"/>
+      <c r="D1006" s="50"/>
+      <c r="E1006" s="50"/>
+      <c r="F1006" s="50"/>
+      <c r="G1006" s="50"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+      <c r="AB1006" s="2"/>
+      <c r="AC1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1007" s="50"/>
+      <c r="B1007" s="50"/>
+      <c r="C1007" s="50"/>
+      <c r="D1007" s="50"/>
+      <c r="E1007" s="50"/>
+      <c r="F1007" s="50"/>
+      <c r="G1007" s="50"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+      <c r="AC1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1008" s="50"/>
+      <c r="B1008" s="50"/>
+      <c r="C1008" s="50"/>
+      <c r="D1008" s="50"/>
+      <c r="E1008" s="50"/>
+      <c r="F1008" s="50"/>
+      <c r="G1008" s="50"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+      <c r="AB1008" s="2"/>
+      <c r="AC1008" s="2"/>
+    </row>
+    <row r="1009" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1009" s="50"/>
+      <c r="B1009" s="50"/>
+      <c r="C1009" s="50"/>
+      <c r="D1009" s="50"/>
+      <c r="E1009" s="50"/>
+      <c r="F1009" s="50"/>
+      <c r="G1009" s="50"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+      <c r="AB1009" s="2"/>
+      <c r="AC1009" s="2"/>
+    </row>
+    <row r="1010" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1010" s="50"/>
+      <c r="B1010" s="50"/>
+      <c r="C1010" s="50"/>
+      <c r="D1010" s="50"/>
+      <c r="E1010" s="50"/>
+      <c r="F1010" s="50"/>
+      <c r="G1010" s="50"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+      <c r="AA1010" s="2"/>
+      <c r="AB1010" s="2"/>
+      <c r="AC1010" s="2"/>
+    </row>
+    <row r="1011" spans="1:29" ht="15.75" customHeight="1">
+      <c r="G1011" s="50"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+      <c r="AA1011" s="2"/>
+      <c r="AB1011" s="2"/>
+      <c r="AC1011" s="2"/>
+    </row>
+    <row r="1012" spans="1:29" ht="15.75" customHeight="1">
+      <c r="G1012" s="50"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+      <c r="AA1012" s="2"/>
+      <c r="AB1012" s="2"/>
+      <c r="AC1012" s="2"/>
+    </row>
+    <row r="1013" spans="1:29" ht="15.75" customHeight="1">
+      <c r="G1013" s="50"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+      <c r="AA1013" s="2"/>
+      <c r="AB1013" s="2"/>
+      <c r="AC1013" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
